--- a/Technology/Software/Fair Isaac Corporation.xlsx
+++ b/Technology/Software/Fair Isaac Corporation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBBEEBF8-DB38-DF46-9E90-0641FBCDE8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D74F5-7B50-AC4A-9D94-B5DB34EA9317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1157,17 +1157,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
       <right/>
       <top style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
@@ -1276,15 +1265,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
@@ -1382,12 +1362,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1457,125 +1498,89 @@
     <xf numFmtId="9" fontId="12" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="9" fontId="12" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="18" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1584,106 +1589,146 @@
     <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="23" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="10" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="12" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="10" fontId="12" fillId="12" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="12" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="13" fillId="9" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="13" fillId="9" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1692,20 +1737,23 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="9" fontId="13" fillId="12" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="13" fillId="12" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="12" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1743,6 +1791,7 @@
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
+      <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
@@ -1760,7 +1809,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.5080000000000002E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1772,6 +1821,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1897,39 +1947,39 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>987.02</v>
-    <v>518.26</v>
-    <v>1.1833</v>
-    <v>22.82</v>
-    <v>2.4264999999999998E-2</v>
-    <v>-2.7</v>
-    <v>-2.8050000000000002E-3</v>
+    <v>1130.47</v>
+    <v>575.39</v>
+    <v>1.2677</v>
+    <v>40.94</v>
+    <v>3.7643000000000003E-2</v>
+    <v>52.21</v>
+    <v>4.6296999999999998E-2</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
-    <v>3437</v>
+    <v>3455</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>987.02</v>
+    <v>1130.47</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45239.996917256249</v>
+    <v>45262.036313066405</v>
     <v>0</v>
-    <v>900.01</v>
-    <v>23943707532</v>
+    <v>1083.72</v>
+    <v>27869720000</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>901.26</v>
-    <v>56.870199999999997</v>
-    <v>940.43</v>
-    <v>963.25</v>
-    <v>960</v>
-    <v>24857210</v>
+    <v>1084.97</v>
+    <v>64.248500000000007</v>
+    <v>1087.5999999999999</v>
+    <v>1128.54</v>
+    <v>1179.92</v>
+    <v>24713560</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>343330</v>
-    <v>214527</v>
+    <v>299849</v>
+    <v>187728</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2541,9 +2591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S196"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N195" sqref="N195"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J202" sqref="J202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13697,20 +13747,17 @@
         <f t="shared" ref="O189" si="28">(O188/N188)-1</f>
         <v>-7.006821503241456E-2</v>
       </c>
-      <c r="P189" s="23">
-        <f t="shared" ref="P189" si="29">(P188/O188)-1</f>
-        <v>-0.69027598288711245</v>
-      </c>
+      <c r="P189" s="23"/>
       <c r="Q189" s="23">
-        <f t="shared" ref="Q189" si="30">(Q188/P188)-1</f>
+        <f t="shared" ref="Q189" si="29">(Q188/P188)-1</f>
         <v>-0.31272726003596019</v>
       </c>
       <c r="R189" s="23">
-        <f t="shared" ref="R189" si="31">(R188/Q188)-1</f>
+        <f t="shared" ref="R189" si="30">(R188/Q188)-1</f>
         <v>-4.1115653282160269E-2</v>
       </c>
       <c r="S189" s="23">
-        <f t="shared" ref="S189" si="32">(S188/R188)-1</f>
+        <f t="shared" ref="S189" si="31">(S188/R188)-1</f>
         <v>0.33917974757689273</v>
       </c>
     </row>
@@ -13719,75 +13766,75 @@
         <v>200</v>
       </c>
       <c r="B190" s="25">
-        <f t="shared" ref="B190:S190" si="33">B188/B2</f>
+        <f t="shared" ref="B190:S190" si="32">B188/B2</f>
         <v>0.17365524079366887</v>
       </c>
       <c r="C190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.23544481452613675</v>
       </c>
       <c r="D190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.18581976219022711</v>
       </c>
       <c r="E190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.17841752035123021</v>
       </c>
       <c r="F190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.23167847550967383</v>
       </c>
       <c r="G190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.15625166998298723</v>
       </c>
       <c r="H190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.20811668383717816</v>
       </c>
       <c r="I190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.24424170295300529</v>
       </c>
       <c r="J190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.20869333785321678</v>
       </c>
       <c r="K190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.23422043939959469</v>
       </c>
       <c r="L190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.29486813377806548</v>
       </c>
       <c r="M190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.34140463838436624</v>
       </c>
       <c r="N190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.40520851757462228</v>
       </c>
       <c r="O190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.35242946219268056</v>
       </c>
       <c r="P190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.46090551343663622</v>
       </c>
       <c r="Q190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.3203297909357149</v>
       </c>
       <c r="R190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.27856816281234714</v>
       </c>
       <c r="S190" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="32"/>
         <v>0.35581535436230838</v>
       </c>
     </row>
@@ -14046,7 +14093,7 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14054,1914 +14101,1914 @@
     <col min="1" max="19" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="115" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="e" vm="1">
+    <row r="1" spans="1:19" s="117" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="116" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-    </row>
-    <row r="2" spans="1:19" s="115" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+    </row>
+    <row r="2" spans="1:19" s="117" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
     </row>
     <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>23943707532</v>
+        <v>27869720000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="97">
         <f>Financials!O8*0.01</f>
         <v>0.78900000000000003</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="97">
         <f>SUM(C11:E11)/3</f>
-        <v>5.9675875183305006E-2</v>
-      </c>
-      <c r="F3" s="38" t="s">
+        <v>5.4012717353345861E-2</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="G3" s="39">
-        <f>AVERAGE(Financials!G129:O129)</f>
-        <v>-2.7292598519308937E-2</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="G3" s="38">
+        <f>AVERAGE(Financials!M129:S129)</f>
+        <v>-2.1487754880384551E-2</v>
+      </c>
+      <c r="H3" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="101">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>15291877986.138557</v>
-      </c>
-      <c r="J3" s="41" t="s">
+        <v>19400242212.24453</v>
+      </c>
+      <c r="J3" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="K3" s="42">
+      <c r="K3" s="105">
         <f>(Financials!O172*-1)/Model!A3</f>
         <v>0</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="116" t="s">
+      <c r="M3" s="41"/>
+      <c r="N3" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="O3" s="117"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
     </row>
     <row r="4" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45">
+      <c r="A4" s="42">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>-1791257000</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="43" t="s">
         <v>211</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="98">
         <f>Financials!O17*0.01</f>
         <v>0.41380000000000006</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="98">
         <f>SUM(C13:E13)/3</f>
-        <v>0.2805679122605827</v>
-      </c>
-      <c r="F4" s="48" t="s">
+        <v>0.25292064264192032</v>
+      </c>
+      <c r="F4" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="G4" s="49">
+      <c r="G4" s="45">
         <f>A5*(1+(5*G3))</f>
-        <v>21465120.735799242</v>
-      </c>
-      <c r="H4" s="48" t="s">
+        <v>22058365.402491618</v>
+      </c>
+      <c r="H4" s="44" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="50">
+      <c r="I4" s="102">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>12638955630.921295</v>
-      </c>
-      <c r="J4" s="48" t="s">
+        <v>16075757971.716721</v>
+      </c>
+      <c r="J4" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="K4" s="51" cm="1">
+      <c r="K4" s="103" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>2.4264999999999998E-2</v>
-      </c>
-      <c r="L4" s="52" t="s">
+        <v>3.7643000000000003E-2</v>
+      </c>
+      <c r="L4" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="118" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="120" t="s">
         <v>217</v>
       </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
+      <c r="O4" s="121"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
     </row>
     <row r="5" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="45" cm="1">
+      <c r="A5" s="42" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>24857210</v>
-      </c>
-      <c r="B5" s="46" t="s">
+        <v>24713560</v>
+      </c>
+      <c r="B5" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="47">
+      <c r="C5" s="98">
         <f>F14</f>
-        <v>0.28335535006605017</v>
-      </c>
-      <c r="D5" s="53" t="s">
+        <v>0.34699940582293526</v>
+      </c>
+      <c r="D5" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="47">
+      <c r="E5" s="98">
         <f>SUM(C16:E16)/3</f>
-        <v>0.27466202433994308</v>
-      </c>
-      <c r="F5" s="48" t="s">
+        <v>0.1983207724587035</v>
+      </c>
+      <c r="F5" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="45">
         <f>Financials!O56</f>
         <v>163022000</v>
       </c>
-      <c r="H5" s="48" t="s">
+      <c r="H5" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="102">
         <f>I4+G5-G6</f>
-        <v>10847698630.921295</v>
-      </c>
-      <c r="J5" s="48" t="s">
+        <v>14284500971.716721</v>
+      </c>
+      <c r="J5" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="K5" s="54" cm="1">
+      <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>963.25</v>
-      </c>
-      <c r="L5" s="55" t="s">
+        <v>1128.54</v>
+      </c>
+      <c r="L5" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="M5" s="44"/>
-      <c r="N5" s="56" t="s">
+      <c r="M5" s="41"/>
+      <c r="N5" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="O5" s="57">
+      <c r="O5" s="50">
         <f>Financials!O20</f>
         <v>92082000</v>
       </c>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
     </row>
     <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="58">
+      <c r="A6" s="51">
         <f>O20/F10</f>
-        <v>15.814866269484808</v>
-      </c>
-      <c r="B6" s="46" t="s">
+        <v>16.55954842543078</v>
+      </c>
+      <c r="B6" s="43" t="s">
         <v>225</v>
       </c>
-      <c r="C6" s="47">
+      <c r="C6" s="98">
         <f>F17</f>
-        <v>0.31307793923381771</v>
-      </c>
-      <c r="D6" s="53" t="s">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="D6" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="98">
         <f>Financials!O33/Financials!O126</f>
         <v>-0.59469356909894655</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="43" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="49">
+      <c r="G6" s="45">
         <f>Financials!O96+Financials!O105</f>
         <v>1954279000</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="I6" s="51">
+      <c r="I6" s="103">
         <f>N25</f>
-        <v>9.2364191692725042E-2</v>
-      </c>
-      <c r="J6" s="48" t="s">
+        <v>9.3684709470224448E-2</v>
+      </c>
+      <c r="J6" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="K6" s="59">
+      <c r="K6" s="106">
         <f>I5/G4</f>
-        <v>505.36396996964697</v>
-      </c>
-      <c r="L6" s="60" t="s">
+        <v>647.57749321276572</v>
+      </c>
+      <c r="L6" s="52" t="s">
         <v>229</v>
       </c>
-      <c r="M6" s="44"/>
-      <c r="N6" s="56" t="s">
+      <c r="M6" s="41"/>
+      <c r="N6" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="O6" s="57">
+      <c r="O6" s="50">
         <f>Financials!O96</f>
         <v>115000000</v>
       </c>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
     </row>
     <row r="7" spans="1:19" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="61">
+      <c r="A7" s="53">
         <f>O20/F12</f>
-        <v>55.812838069930073</v>
-      </c>
-      <c r="B7" s="62" t="s">
+        <v>47.722123287671231</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="C7" s="63">
+      <c r="C7" s="99">
         <f>F15/A3</f>
-        <v>1.9796432919442997E-2</v>
-      </c>
-      <c r="D7" s="62" t="s">
+        <v>2.5619202489296628E-2</v>
+      </c>
+      <c r="D7" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="64">
+      <c r="E7" s="100">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.36551899819483757</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="65">
+      <c r="G7" s="55">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>-2.7760591270156936</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="104">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="68" t="s">
+      <c r="J7" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="107">
         <f>K6/K5-1</f>
-        <v>-0.47535533872863023</v>
-      </c>
-      <c r="L7" s="70" t="s">
+        <v>-0.4261811781480801</v>
+      </c>
+      <c r="L7" s="58" t="s">
         <v>235</v>
       </c>
-      <c r="M7" s="44"/>
-      <c r="N7" s="56" t="s">
+      <c r="M7" s="41"/>
+      <c r="N7" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="50">
         <f>Financials!O105</f>
         <v>1839279000</v>
       </c>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
     </row>
     <row r="8" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="73" t="s">
+      <c r="A8" s="59"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="61" t="s">
         <v>217</v>
       </c>
-      <c r="O8" s="74">
+      <c r="O8" s="62">
         <f>O5/(O6+O7)</f>
         <v>4.7118144338653793E-2</v>
       </c>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
     </row>
     <row r="9" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76">
-        <v>2019</v>
-      </c>
-      <c r="C9" s="76">
+      <c r="A9" s="63"/>
+      <c r="B9" s="64">
         <v>2020</v>
       </c>
-      <c r="D9" s="76">
+      <c r="C9" s="64">
         <v>2021</v>
       </c>
-      <c r="E9" s="77">
+      <c r="D9" s="64">
         <v>2022</v>
       </c>
-      <c r="F9" s="78">
+      <c r="E9" s="65">
         <v>2023</v>
       </c>
-      <c r="G9" s="79">
+      <c r="F9" s="66">
         <v>2024</v>
       </c>
-      <c r="H9" s="79">
+      <c r="G9" s="67">
         <v>2025</v>
       </c>
-      <c r="I9" s="79">
+      <c r="H9" s="67">
         <v>2026</v>
       </c>
-      <c r="J9" s="80">
+      <c r="I9" s="67">
         <v>2027</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="56" t="s">
+      <c r="J9" s="68">
+        <v>2028</v>
+      </c>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="50">
         <f>Financials!O25</f>
         <v>107619000</v>
       </c>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
     </row>
     <row r="10" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="82">
-        <v>1160083000</v>
-      </c>
-      <c r="C10" s="82">
-        <v>1294562000</v>
-      </c>
-      <c r="D10" s="82">
-        <v>1316536000</v>
-      </c>
-      <c r="E10" s="83">
-        <v>1377270000</v>
-      </c>
-      <c r="F10" s="82">
+      <c r="B10" s="70">
+        <v>1295000000</v>
+      </c>
+      <c r="C10" s="70">
+        <v>1317000000</v>
+      </c>
+      <c r="D10" s="70">
+        <v>1377000000</v>
+      </c>
+      <c r="E10" s="71">
         <v>1514000000</v>
       </c>
-      <c r="G10" s="82">
-        <v>1550000000</v>
-      </c>
-      <c r="H10" s="82">
-        <v>1654000000</v>
-      </c>
-      <c r="I10" s="82">
-        <v>1832000000</v>
-      </c>
-      <c r="J10" s="83">
-        <v>2043000000</v>
-      </c>
-      <c r="K10" s="84" t="s">
+      <c r="F10" s="70">
+        <v>1683000000</v>
+      </c>
+      <c r="G10" s="70">
+        <v>1863000000</v>
+      </c>
+      <c r="H10" s="70">
+        <v>2042000000</v>
+      </c>
+      <c r="I10" s="70">
+        <v>2241000000</v>
+      </c>
+      <c r="J10" s="71">
+        <v>2481000000</v>
+      </c>
+      <c r="K10" s="72" t="s">
         <v>239</v>
       </c>
-      <c r="L10" s="72"/>
-      <c r="N10" s="56" t="s">
+      <c r="L10" s="60"/>
+      <c r="N10" s="49" t="s">
         <v>240</v>
       </c>
-      <c r="O10" s="57">
+      <c r="O10" s="50">
         <f>Financials!O24</f>
         <v>526269000</v>
       </c>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
     </row>
     <row r="11" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
-        <v>0.11592187800355669</v>
-      </c>
-      <c r="D11" s="86">
+        <v>1.698841698841691E-2</v>
+      </c>
+      <c r="D11" s="74">
         <f t="shared" si="0"/>
-        <v>1.6974080808798586E-2</v>
-      </c>
-      <c r="E11" s="86">
+        <v>4.5558086560364419E-2</v>
+      </c>
+      <c r="E11" s="74">
         <f t="shared" si="0"/>
-        <v>4.6131666737559751E-2</v>
-      </c>
-      <c r="F11" s="87">
+        <v>9.9491648511256248E-2</v>
+      </c>
+      <c r="F11" s="75">
         <f t="shared" si="0"/>
-        <v>9.9276104177103974E-2</v>
-      </c>
-      <c r="G11" s="86">
+        <v>0.11162483487450459</v>
+      </c>
+      <c r="G11" s="74">
         <f t="shared" si="0"/>
-        <v>2.3778071334213946E-2</v>
-      </c>
-      <c r="H11" s="86">
+        <v>0.10695187165775399</v>
+      </c>
+      <c r="H11" s="74">
         <f t="shared" si="0"/>
-        <v>6.7096774193548425E-2</v>
-      </c>
-      <c r="I11" s="86">
+        <v>9.6081588835212006E-2</v>
+      </c>
+      <c r="I11" s="74">
         <f t="shared" si="0"/>
-        <v>0.10761789600967342</v>
-      </c>
-      <c r="J11" s="88">
+        <v>9.7453476983349718E-2</v>
+      </c>
+      <c r="J11" s="76">
         <f t="shared" si="0"/>
-        <v>0.11517467248908297</v>
-      </c>
-      <c r="K11" s="88">
+        <v>0.107095046854083</v>
+      </c>
+      <c r="K11" s="76">
         <f>AVERAGE(F11:J11)</f>
-        <v>8.2588703640724542E-2</v>
-      </c>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="56" t="s">
+        <v>0.10384136384098067</v>
+      </c>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="49" t="s">
         <v>241</v>
       </c>
-      <c r="O11" s="89">
+      <c r="O11" s="77">
         <f>O9/O10</f>
         <v>0.20449427954145125</v>
       </c>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
     </row>
     <row r="12" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="82">
-        <v>192124000</v>
-      </c>
-      <c r="C12" s="82">
+      <c r="B12" s="70">
         <v>236411000</v>
       </c>
-      <c r="D12" s="82">
-        <v>392084000</v>
-      </c>
-      <c r="E12" s="82">
-        <v>373541000</v>
-      </c>
-      <c r="F12" s="90">
+      <c r="C12" s="70">
+        <v>392000000</v>
+      </c>
+      <c r="D12" s="70">
+        <v>375000000</v>
+      </c>
+      <c r="E12" s="70">
         <v>429000000</v>
       </c>
-      <c r="G12" s="82">
-        <v>507000000</v>
-      </c>
-      <c r="H12" s="82">
-        <v>587000000</v>
-      </c>
-      <c r="I12" s="82">
-        <v>694000000</v>
-      </c>
-      <c r="J12" s="83">
-        <v>822000000</v>
-      </c>
-      <c r="K12" s="91" t="s">
+      <c r="F12" s="78">
+        <v>584000000</v>
+      </c>
+      <c r="G12" s="70">
+        <v>682000000</v>
+      </c>
+      <c r="H12" s="70">
+        <v>832000000</v>
+      </c>
+      <c r="I12" s="70">
+        <v>950000000</v>
+      </c>
+      <c r="J12" s="71">
+        <v>1101000000</v>
+      </c>
+      <c r="K12" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="56" t="s">
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="49" t="s">
         <v>243</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="77">
         <f>O8*(1-O11)</f>
         <v>3.7482753358790671E-2</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
     </row>
     <row r="13" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="74">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
-        <v>0.230512585621786</v>
-      </c>
-      <c r="D13" s="86">
+        <v>0.65812927486453665</v>
+      </c>
+      <c r="D13" s="74">
         <f t="shared" si="1"/>
-        <v>0.65848458828057921</v>
-      </c>
-      <c r="E13" s="86">
+        <v>-4.3367346938775531E-2</v>
+      </c>
+      <c r="E13" s="74">
         <f t="shared" si="1"/>
-        <v>-4.7293437120617066E-2</v>
-      </c>
-      <c r="F13" s="87">
+        <v>0.14399999999999991</v>
+      </c>
+      <c r="F13" s="75">
         <f t="shared" si="1"/>
-        <v>0.14846830736117322</v>
-      </c>
-      <c r="G13" s="86">
+        <v>0.36130536130536139</v>
+      </c>
+      <c r="G13" s="74">
         <f t="shared" si="1"/>
-        <v>0.18181818181818188</v>
-      </c>
-      <c r="H13" s="86">
+        <v>0.16780821917808209</v>
+      </c>
+      <c r="H13" s="74">
         <f t="shared" si="1"/>
-        <v>0.15779092702169617</v>
-      </c>
-      <c r="I13" s="86">
+        <v>0.21994134897360706</v>
+      </c>
+      <c r="I13" s="74">
         <f t="shared" si="1"/>
-        <v>0.18228279386712098</v>
-      </c>
-      <c r="J13" s="88">
+        <v>0.14182692307692313</v>
+      </c>
+      <c r="J13" s="76">
         <f t="shared" si="1"/>
-        <v>0.18443804034582123</v>
-      </c>
-      <c r="K13" s="88">
+        <v>0.15894736842105273</v>
+      </c>
+      <c r="K13" s="76">
         <f>AVERAGE(F13:J13)</f>
-        <v>0.1709596500827987</v>
-      </c>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="118" t="s">
+        <v>0.20996584419100528</v>
+      </c>
+      <c r="L13" s="60"/>
+      <c r="M13" s="60"/>
+      <c r="N13" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="O13" s="119"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
     </row>
     <row r="14" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="81">
         <f>B12/B10</f>
-        <v>0.16561228808628348</v>
-      </c>
-      <c r="C14" s="93">
+        <v>0.18255675675675676</v>
+      </c>
+      <c r="C14" s="81">
         <f t="shared" ref="C14:J14" si="2">C12/C10</f>
-        <v>0.18261852271270129</v>
-      </c>
-      <c r="D14" s="93">
+        <v>0.2976461655277145</v>
+      </c>
+      <c r="D14" s="81">
         <f t="shared" si="2"/>
-        <v>0.29781487175436144</v>
-      </c>
-      <c r="E14" s="93">
-        <f t="shared" si="2"/>
-        <v>0.27121842485496672</v>
-      </c>
-      <c r="F14" s="94">
+        <v>0.27233115468409586</v>
+      </c>
+      <c r="E14" s="81">
         <f t="shared" si="2"/>
         <v>0.28335535006605017</v>
       </c>
-      <c r="G14" s="93">
+      <c r="F14" s="82">
         <f t="shared" si="2"/>
-        <v>0.32709677419354838</v>
-      </c>
-      <c r="H14" s="93">
+        <v>0.34699940582293526</v>
+      </c>
+      <c r="G14" s="81">
         <f t="shared" si="2"/>
-        <v>0.35489721886336156</v>
-      </c>
-      <c r="I14" s="93">
+        <v>0.36607622114868493</v>
+      </c>
+      <c r="H14" s="81">
         <f t="shared" si="2"/>
-        <v>0.37882096069868998</v>
-      </c>
-      <c r="J14" s="95">
+        <v>0.40744368266405484</v>
+      </c>
+      <c r="I14" s="81">
         <f t="shared" si="2"/>
-        <v>0.4023494860499266</v>
-      </c>
-      <c r="K14" s="95"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="56" t="s">
+        <v>0.42391789379741185</v>
+      </c>
+      <c r="J14" s="83">
+        <f t="shared" si="2"/>
+        <v>0.44377267230955258</v>
+      </c>
+      <c r="K14" s="83"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="49" t="s">
         <v>246</v>
       </c>
-      <c r="O14" s="89">
+      <c r="O14" s="77">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.5080000000000002E-2</v>
-      </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
     </row>
     <row r="15" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="69" t="s">
         <v>185</v>
       </c>
-      <c r="B15" s="82">
-        <v>271715150</v>
-      </c>
-      <c r="C15" s="82">
-        <v>381725081</v>
-      </c>
-      <c r="D15" s="82">
-        <v>449471497</v>
-      </c>
-      <c r="E15" s="82">
-        <v>558081535</v>
-      </c>
-      <c r="F15" s="90">
-        <v>474000000</v>
-      </c>
-      <c r="G15" s="82">
-        <v>646000000</v>
-      </c>
-      <c r="H15" s="82">
-        <v>732000000</v>
-      </c>
-      <c r="I15" s="82">
-        <v>889000000</v>
-      </c>
-      <c r="J15" s="83">
-        <v>1005000000</v>
-      </c>
-      <c r="K15" s="91" t="s">
+      <c r="B15" s="70">
+        <v>290000000</v>
+      </c>
+      <c r="C15" s="70">
+        <v>378000000</v>
+      </c>
+      <c r="D15" s="70">
+        <v>468000000</v>
+      </c>
+      <c r="E15" s="70">
+        <v>493000000</v>
+      </c>
+      <c r="F15" s="78">
+        <v>714000000</v>
+      </c>
+      <c r="G15" s="70">
+        <v>819000000</v>
+      </c>
+      <c r="H15" s="70">
+        <v>938000000</v>
+      </c>
+      <c r="I15" s="70">
+        <v>1134000000</v>
+      </c>
+      <c r="J15" s="71">
+        <v>1300000000</v>
+      </c>
+      <c r="K15" s="79" t="s">
         <v>247</v>
       </c>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="56" t="s">
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="O15" s="96">
+      <c r="O15" s="84">
         <f>1.33</f>
         <v>1.33</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
     </row>
     <row r="16" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86">
+      <c r="A16" s="85"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74">
         <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
-        <v>0.40487227524854608</v>
-      </c>
-      <c r="D16" s="86">
+        <v>0.30344827586206891</v>
+      </c>
+      <c r="D16" s="74">
         <f t="shared" si="3"/>
-        <v>0.17747436406988415</v>
-      </c>
-      <c r="E16" s="86">
+        <v>0.23809523809523814</v>
+      </c>
+      <c r="E16" s="74">
         <f t="shared" si="3"/>
-        <v>0.24163943370139895</v>
-      </c>
-      <c r="F16" s="87">
+        <v>5.3418803418803451E-2</v>
+      </c>
+      <c r="F16" s="75">
         <f t="shared" si="3"/>
-        <v>-0.15066173977607056</v>
-      </c>
-      <c r="G16" s="86">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="G16" s="74">
         <f t="shared" si="3"/>
-        <v>0.3628691983122363</v>
-      </c>
-      <c r="H16" s="86">
+        <v>0.14705882352941169</v>
+      </c>
+      <c r="H16" s="74">
         <f t="shared" si="3"/>
-        <v>0.13312693498452011</v>
-      </c>
-      <c r="I16" s="86">
+        <v>0.14529914529914523</v>
+      </c>
+      <c r="I16" s="74">
         <f t="shared" si="3"/>
-        <v>0.21448087431693996</v>
-      </c>
-      <c r="J16" s="88">
+        <v>0.20895522388059695</v>
+      </c>
+      <c r="J16" s="76">
         <f t="shared" si="3"/>
-        <v>0.13048368953880773</v>
-      </c>
-      <c r="K16" s="88">
+        <v>0.1463844797178131</v>
+      </c>
+      <c r="K16" s="76">
         <f>AVERAGE(F16:J16)</f>
-        <v>0.13805979147528671</v>
-      </c>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="56" t="s">
+        <v>0.21919470689918649</v>
+      </c>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="O16" s="89">
+      <c r="O16" s="77">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
     </row>
     <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="80" t="s">
         <v>200</v>
       </c>
-      <c r="B17" s="93">
+      <c r="B17" s="81">
         <f>B15/B10</f>
-        <v>0.23422043939959469</v>
-      </c>
-      <c r="C17" s="93">
+        <v>0.22393822393822393</v>
+      </c>
+      <c r="C17" s="81">
         <f t="shared" ref="C17:J17" si="4">C15/C10</f>
-        <v>0.29486813377806548</v>
-      </c>
-      <c r="D17" s="93">
+        <v>0.28701594533029612</v>
+      </c>
+      <c r="D17" s="81">
         <f t="shared" si="4"/>
-        <v>0.34140463838436624</v>
-      </c>
-      <c r="E17" s="95">
+        <v>0.33986928104575165</v>
+      </c>
+      <c r="E17" s="83">
         <f t="shared" si="4"/>
-        <v>0.40520851757462228</v>
-      </c>
-      <c r="F17" s="93">
+        <v>0.32562747688243066</v>
+      </c>
+      <c r="F17" s="81">
         <f t="shared" si="4"/>
-        <v>0.31307793923381771</v>
-      </c>
-      <c r="G17" s="93">
+        <v>0.42424242424242425</v>
+      </c>
+      <c r="G17" s="81">
         <f t="shared" si="4"/>
-        <v>0.41677419354838707</v>
-      </c>
-      <c r="H17" s="93">
+        <v>0.43961352657004832</v>
+      </c>
+      <c r="H17" s="81">
         <f t="shared" si="4"/>
-        <v>0.44256348246674726</v>
-      </c>
-      <c r="I17" s="93">
+        <v>0.45935357492654261</v>
+      </c>
+      <c r="I17" s="81">
         <f t="shared" si="4"/>
-        <v>0.48526200873362446</v>
-      </c>
-      <c r="J17" s="95">
+        <v>0.50602409638554213</v>
+      </c>
+      <c r="J17" s="83">
         <f t="shared" si="4"/>
-        <v>0.49192364170337738</v>
-      </c>
-      <c r="K17" s="95"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="98" t="s">
+        <v>0.52398226521563884</v>
+      </c>
+      <c r="K17" s="83"/>
+      <c r="L17" s="60"/>
+      <c r="M17" s="60"/>
+      <c r="N17" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="O17" s="99">
+      <c r="O17" s="87">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.6843600000000002E-2</v>
-      </c>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
+        <v>9.762570000000001E-2</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
     </row>
     <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="100" t="s">
+      <c r="A18" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="101">
-        <v>0.17061576931462455</v>
-      </c>
-      <c r="C18" s="101">
+      <c r="B18" s="89">
         <v>0.2064612456043477</v>
       </c>
-      <c r="D18" s="101">
+      <c r="C18" s="89">
         <v>0.25794157001562729</v>
       </c>
-      <c r="E18" s="101">
+      <c r="D18" s="89">
         <v>0.3729079469142389</v>
       </c>
-      <c r="F18" s="102"/>
-      <c r="G18" s="101"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="118" t="s">
+      <c r="E18" s="89">
+        <v>0.36551899819483757</v>
+      </c>
+      <c r="F18" s="90"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="O18" s="119"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
     </row>
     <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="72"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72" t="s">
+      <c r="A19" s="60"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60" t="s">
         <v>251</v>
       </c>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="56" t="s">
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="49" t="s">
         <v>227</v>
       </c>
-      <c r="O19" s="105">
+      <c r="O19" s="93">
         <f>O6+O7</f>
         <v>1954279000</v>
       </c>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
     </row>
     <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="56" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="O20" s="105">
+      <c r="O20" s="93">
         <f>A3</f>
-        <v>23943707532</v>
-      </c>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
+        <v>27869720000</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
     </row>
     <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109" t="str" cm="1">
+      <c r="A21" s="122" t="str" cm="1">
         <f t="array" ref="A21">_FV(A1,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="120" cm="1">
-        <f t="array" ref="C21">_FV(A1,"Year incorporated",TRUE)</f>
+      <c r="B21" s="122"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="123" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1987</v>
       </c>
-      <c r="D21" s="120"/>
-      <c r="E21" s="120"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="56" t="s">
+      <c r="E21" s="123"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="M21" s="60"/>
+      <c r="N21" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="O21" s="105">
+      <c r="O21" s="93">
         <f>O19+O20</f>
-        <v>25897986532</v>
-      </c>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
+        <v>29823999000</v>
+      </c>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
     </row>
     <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109" t="str" cm="1">
+      <c r="A22" s="111" t="str" cm="1">
         <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="73" t="s">
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="60"/>
+      <c r="M22" s="60"/>
+      <c r="N22" s="61" t="s">
         <v>253</v>
       </c>
-      <c r="O22" s="107">
+      <c r="O22" s="95">
         <f>(O19/O21)</f>
-        <v>7.546065396185371E-2</v>
-      </c>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
+        <v>6.5527060941760362E-2</v>
+      </c>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
     </row>
     <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="98" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="60"/>
+      <c r="N23" s="86" t="s">
         <v>254</v>
       </c>
-      <c r="O23" s="108">
+      <c r="O23" s="96">
         <f>O20/O21</f>
-        <v>0.92453934603814625</v>
-      </c>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
+        <v>0.93447293905823969</v>
+      </c>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
     </row>
     <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="110" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="60"/>
+      <c r="M24" s="60"/>
+      <c r="N24" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
+      <c r="O24" s="113"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
     </row>
     <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="112">
+      <c r="A25" s="111"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.2364191692725042E-2</v>
-      </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
+        <v>9.3684709470224448E-2</v>
+      </c>
+      <c r="O25" s="115"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
     </row>
     <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-      <c r="K26" s="72"/>
-      <c r="L26" s="72"/>
-      <c r="M26" s="72"/>
-      <c r="N26" s="72"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="44"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
+      <c r="A26" s="111"/>
+      <c r="B26" s="111"/>
+      <c r="C26" s="111"/>
+      <c r="D26" s="111"/>
+      <c r="E26" s="111"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
     </row>
     <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="44"/>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
+      <c r="A27" s="111"/>
+      <c r="B27" s="111"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
     </row>
     <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="109"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72"/>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
+      <c r="A28" s="111"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
     </row>
     <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="109"/>
-      <c r="B29" s="109"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72"/>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="44"/>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="44"/>
-      <c r="R29" s="44"/>
+      <c r="A29" s="111"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
     </row>
     <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="109"/>
-      <c r="B30" s="109"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="44"/>
+      <c r="A30" s="111"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="111"/>
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" s="44"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="44"/>
-      <c r="J31" s="44"/>
-      <c r="K31" s="44"/>
-      <c r="L31" s="44"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="44"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="44"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A32" s="44"/>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="44"/>
-      <c r="K32" s="44"/>
-      <c r="L32" s="44"/>
-      <c r="M32" s="44"/>
-      <c r="N32" s="44"/>
-      <c r="O32" s="44"/>
-      <c r="P32" s="44"/>
-      <c r="Q32" s="44"/>
-      <c r="R32" s="44"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" s="72"/>
-      <c r="B33" s="72"/>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="72"/>
-      <c r="I33" s="72"/>
-      <c r="J33" s="72"/>
-      <c r="K33" s="72"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="44"/>
-      <c r="R33" s="44"/>
+      <c r="A33" s="60"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="60"/>
+      <c r="N33" s="60"/>
+      <c r="O33" s="60"/>
+      <c r="P33" s="60"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A34" s="72"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
-      <c r="H34" s="72"/>
-      <c r="I34" s="72"/>
-      <c r="J34" s="72"/>
-      <c r="K34" s="72"/>
-      <c r="L34" s="72"/>
-      <c r="M34" s="72"/>
-      <c r="N34" s="72"/>
-      <c r="O34" s="72"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="44"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" s="72"/>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-      <c r="K35" s="72"/>
-      <c r="L35" s="72"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="72"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
+      <c r="A35" s="60"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60"/>
+      <c r="M35" s="60"/>
+      <c r="N35" s="60"/>
+      <c r="O35" s="60"/>
+      <c r="P35" s="60"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="72"/>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-      <c r="K36" s="72"/>
-      <c r="L36" s="72"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="72"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="44"/>
-      <c r="R36" s="44"/>
+      <c r="A36" s="60"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="60"/>
+      <c r="N36" s="60"/>
+      <c r="O36" s="60"/>
+      <c r="P36" s="60"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="72"/>
-      <c r="B37" s="72"/>
-      <c r="C37" s="72"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="72"/>
-      <c r="J37" s="72"/>
-      <c r="K37" s="72"/>
-      <c r="L37" s="72"/>
-      <c r="M37" s="72"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="72"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
+      <c r="P37" s="60"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="72"/>
-      <c r="B38" s="72"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72"/>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="60"/>
+      <c r="N38" s="60"/>
+      <c r="O38" s="60"/>
+      <c r="P38" s="60"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="60"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
+      <c r="A40" s="60"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="72"/>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="72"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="72"/>
-      <c r="J41" s="72"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="72"/>
-      <c r="N41" s="72"/>
-      <c r="O41" s="72"/>
-      <c r="P41" s="72"/>
-      <c r="Q41" s="44"/>
-      <c r="R41" s="44"/>
+      <c r="A41" s="60"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="72"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="72"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="72"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="72"/>
-      <c r="J42" s="72"/>
-      <c r="K42" s="72"/>
-      <c r="L42" s="72"/>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="44"/>
-      <c r="R42" s="44"/>
+      <c r="A42" s="60"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="60"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="72"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="44"/>
-      <c r="R43" s="44"/>
+      <c r="A43" s="60"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="60"/>
+      <c r="M43" s="60"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="72"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="72"/>
-      <c r="O44" s="72"/>
-      <c r="P44" s="72"/>
-      <c r="Q44" s="44"/>
-      <c r="R44" s="44"/>
+      <c r="A44" s="60"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="60"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="72"/>
-      <c r="B45" s="72"/>
-      <c r="C45" s="72"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="72"/>
-      <c r="J45" s="72"/>
-      <c r="K45" s="72"/>
-      <c r="L45" s="72"/>
-      <c r="M45" s="72"/>
-      <c r="N45" s="72"/>
-      <c r="O45" s="72"/>
-      <c r="P45" s="72"/>
-      <c r="Q45" s="44"/>
-      <c r="R45" s="44"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="72"/>
-      <c r="B46" s="72"/>
-      <c r="C46" s="72"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="72"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="72"/>
-      <c r="J46" s="72"/>
-      <c r="K46" s="72"/>
-      <c r="L46" s="72"/>
-      <c r="M46" s="72"/>
-      <c r="N46" s="72"/>
-      <c r="O46" s="72"/>
-      <c r="P46" s="72"/>
-      <c r="Q46" s="44"/>
-      <c r="R46" s="44"/>
+      <c r="A46" s="60"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="72"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="72"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="72"/>
-      <c r="L47" s="72"/>
-      <c r="M47" s="72"/>
-      <c r="N47" s="72"/>
-      <c r="O47" s="72"/>
-      <c r="P47" s="72"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="44"/>
+      <c r="A47" s="60"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="72"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="72"/>
-      <c r="J48" s="72"/>
-      <c r="K48" s="72"/>
-      <c r="L48" s="72"/>
-      <c r="M48" s="72"/>
-      <c r="N48" s="72"/>
-      <c r="O48" s="72"/>
-      <c r="P48" s="72"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
+      <c r="A48" s="60"/>
+      <c r="B48" s="60"/>
+      <c r="C48" s="60"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="72"/>
-      <c r="B49" s="72"/>
-      <c r="C49" s="72"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="72"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
-      <c r="K49" s="72"/>
-      <c r="L49" s="72"/>
-      <c r="M49" s="72"/>
-      <c r="N49" s="72"/>
-      <c r="O49" s="72"/>
-      <c r="P49" s="72"/>
-      <c r="Q49" s="44"/>
-      <c r="R49" s="44"/>
+      <c r="A49" s="60"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
+      <c r="O49" s="60"/>
+      <c r="P49" s="60"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="C50" s="72"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="72"/>
-      <c r="J50" s="72"/>
-      <c r="K50" s="72"/>
-      <c r="L50" s="72"/>
-      <c r="M50" s="72"/>
-      <c r="N50" s="72"/>
-      <c r="O50" s="72"/>
-      <c r="P50" s="72"/>
-      <c r="Q50" s="44"/>
-      <c r="R50" s="44"/>
+      <c r="A50" s="60"/>
+      <c r="B50" s="60"/>
+      <c r="C50" s="60"/>
+      <c r="D50" s="60"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
+      <c r="O50" s="60"/>
+      <c r="P50" s="60"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="72"/>
-      <c r="B51" s="72"/>
-      <c r="C51" s="72"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="72"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="72"/>
-      <c r="J51" s="72"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="72"/>
-      <c r="P51" s="72"/>
-      <c r="Q51" s="44"/>
-      <c r="R51" s="44"/>
+      <c r="A51" s="60"/>
+      <c r="B51" s="60"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="60"/>
+      <c r="E51" s="60"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="72"/>
-      <c r="B52" s="72"/>
-      <c r="C52" s="72"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="72"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="72"/>
-      <c r="J52" s="72"/>
-      <c r="K52" s="72"/>
-      <c r="L52" s="72"/>
-      <c r="M52" s="72"/>
-      <c r="N52" s="72"/>
-      <c r="O52" s="72"/>
-      <c r="P52" s="72"/>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
+      <c r="A52" s="60"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="60"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="72"/>
-      <c r="B53" s="72"/>
-      <c r="C53" s="72"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
-      <c r="K53" s="72"/>
-      <c r="L53" s="72"/>
-      <c r="M53" s="72"/>
-      <c r="N53" s="72"/>
-      <c r="O53" s="72"/>
-      <c r="P53" s="72"/>
-      <c r="Q53" s="44"/>
-      <c r="R53" s="44"/>
+      <c r="A53" s="60"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="60"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="72"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="72"/>
-      <c r="J54" s="72"/>
-      <c r="K54" s="72"/>
-      <c r="L54" s="72"/>
-      <c r="M54" s="72"/>
-      <c r="N54" s="72"/>
-      <c r="O54" s="72"/>
-      <c r="P54" s="72"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="44"/>
+      <c r="A54" s="60"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
-      <c r="K55" s="72"/>
-      <c r="L55" s="72"/>
-      <c r="M55" s="72"/>
-      <c r="N55" s="72"/>
-      <c r="O55" s="72"/>
-      <c r="P55" s="72"/>
-      <c r="Q55" s="44"/>
-      <c r="R55" s="44"/>
+      <c r="A55" s="60"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="60"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="72"/>
-      <c r="J56" s="72"/>
-      <c r="K56" s="72"/>
-      <c r="L56" s="72"/>
-      <c r="M56" s="72"/>
-      <c r="N56" s="72"/>
-      <c r="O56" s="72"/>
-      <c r="P56" s="72"/>
-      <c r="Q56" s="44"/>
-      <c r="R56" s="44"/>
+      <c r="A56" s="60"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="60"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="60"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="72"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="72"/>
-      <c r="J57" s="72"/>
-      <c r="K57" s="72"/>
-      <c r="L57" s="72"/>
-      <c r="M57" s="72"/>
-      <c r="N57" s="72"/>
-      <c r="O57" s="72"/>
-      <c r="P57" s="72"/>
-      <c r="Q57" s="44"/>
-      <c r="R57" s="44"/>
+      <c r="A57" s="60"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="60"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
+      <c r="O57" s="60"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="72"/>
-      <c r="J58" s="72"/>
-      <c r="K58" s="72"/>
-      <c r="L58" s="72"/>
-      <c r="M58" s="72"/>
-      <c r="N58" s="72"/>
-      <c r="O58" s="72"/>
-      <c r="P58" s="72"/>
-      <c r="Q58" s="44"/>
-      <c r="R58" s="44"/>
+      <c r="A58" s="60"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
+      <c r="H58" s="60"/>
+      <c r="I58" s="60"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
+      <c r="O58" s="60"/>
+      <c r="P58" s="60"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A59" s="72"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="72"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="72"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="72"/>
-      <c r="J59" s="72"/>
-      <c r="K59" s="72"/>
-      <c r="L59" s="72"/>
-      <c r="M59" s="72"/>
-      <c r="N59" s="72"/>
-      <c r="O59" s="72"/>
-      <c r="P59" s="72"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="60"/>
+      <c r="N59" s="60"/>
+      <c r="O59" s="60"/>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A60" s="72"/>
-      <c r="B60" s="72"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="72"/>
-      <c r="J60" s="72"/>
-      <c r="K60" s="72"/>
-      <c r="L60" s="72"/>
-      <c r="M60" s="72"/>
-      <c r="N60" s="72"/>
-      <c r="O60" s="72"/>
-      <c r="P60" s="72"/>
-      <c r="Q60" s="44"/>
-      <c r="R60" s="44"/>
+      <c r="A60" s="60"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A61" s="72"/>
-      <c r="B61" s="72"/>
-      <c r="C61" s="72"/>
-      <c r="D61" s="72"/>
-      <c r="E61" s="72"/>
-      <c r="F61" s="72"/>
-      <c r="G61" s="72"/>
-      <c r="H61" s="72"/>
-      <c r="I61" s="72"/>
-      <c r="J61" s="72"/>
-      <c r="K61" s="72"/>
-      <c r="L61" s="72"/>
-      <c r="M61" s="72"/>
-      <c r="N61" s="72"/>
-      <c r="O61" s="72"/>
-      <c r="P61" s="72"/>
-      <c r="Q61" s="44"/>
-      <c r="R61" s="44"/>
+      <c r="A61" s="60"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="60"/>
+      <c r="J61" s="60"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="60"/>
+      <c r="N61" s="60"/>
+      <c r="O61" s="60"/>
+      <c r="P61" s="60"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O63" s="44"/>
-      <c r="P63" s="44"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="O64" s="44"/>
-      <c r="P64" s="44"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="44"/>
-      <c r="P65" s="44"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="44"/>
-      <c r="P66" s="44"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="44"/>
-      <c r="P67" s="44"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="44"/>
-      <c r="P68" s="44"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="44"/>
-      <c r="P69" s="44"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="44"/>
-      <c r="P70" s="44"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="44"/>
-      <c r="P71" s="44"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="44"/>
-      <c r="P72" s="44"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="44"/>
-      <c r="P73" s="44"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="44"/>
-      <c r="P74" s="44"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="44"/>
-      <c r="P75" s="44"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="44"/>
-      <c r="P76" s="44"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="44"/>
-      <c r="P77" s="44"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="44"/>
-      <c r="P78" s="44"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="44"/>
-      <c r="P79" s="44"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="44"/>
-      <c r="P80" s="44"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="44"/>
-      <c r="P81" s="44"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="44"/>
-      <c r="P82" s="44"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="44"/>
-      <c r="P83" s="44"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="44"/>
-      <c r="P84" s="44"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="44"/>
-      <c r="P85" s="44"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="44"/>
-      <c r="P86" s="44"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="44"/>
-      <c r="P87" s="44"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="44"/>
-      <c r="P88" s="44"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="44"/>
-      <c r="P89" s="44"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="44"/>
-      <c r="P90" s="44"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="44"/>
-      <c r="P91" s="44"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="44"/>
-      <c r="P92" s="44"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="44"/>
-      <c r="P93" s="44"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="44"/>
-      <c r="P94" s="44"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="44"/>
-      <c r="P95" s="44"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="44"/>
-      <c r="P96" s="44"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="44"/>
-      <c r="P97" s="44"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="41"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="44"/>
-      <c r="P98" s="44"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="44"/>
-      <c r="P99" s="44"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="44"/>
-      <c r="P100" s="44"/>
+      <c r="O100" s="41"/>
+      <c r="P100" s="41"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="44"/>
-      <c r="P101" s="44"/>
+      <c r="O101" s="41"/>
+      <c r="P101" s="41"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="44"/>
-      <c r="P102" s="44"/>
+      <c r="O102" s="41"/>
+      <c r="P102" s="41"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="44"/>
-      <c r="P103" s="44"/>
+      <c r="O103" s="41"/>
+      <c r="P103" s="41"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="44"/>
-      <c r="P104" s="44"/>
+      <c r="O104" s="41"/>
+      <c r="P104" s="41"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="44"/>
-      <c r="P105" s="44"/>
+      <c r="O105" s="41"/>
+      <c r="P105" s="41"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="44"/>
-      <c r="P106" s="44"/>
+      <c r="O106" s="41"/>
+      <c r="P106" s="41"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="44"/>
-      <c r="P107" s="44"/>
+      <c r="O107" s="41"/>
+      <c r="P107" s="41"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="44"/>
-      <c r="P108" s="44"/>
+      <c r="O108" s="41"/>
+      <c r="P108" s="41"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="44"/>
-      <c r="P109" s="44"/>
+      <c r="O109" s="41"/>
+      <c r="P109" s="41"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
+      <c r="O110" s="41"/>
+      <c r="P110" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -15973,8 +16020,8 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:FICO/explorer/revenue_proj" xr:uid="{A5E04DFA-7646-F241-8002-8D06F7E4720C}"/>

--- a/Technology/Software/Fair Isaac Corporation.xlsx
+++ b/Technology/Software/Fair Isaac Corporation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Software/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B7D74F5-7B50-AC4A-9D94-B5DB34EA9317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070E3A69-9C19-1C46-838C-D69B7315D62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1790,6 +1790,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1809,7 +1811,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1822,6 +1824,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1947,13 +1951,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>1130.47</v>
+    <v>1151.49</v>
     <v>575.39</v>
-    <v>1.2677</v>
-    <v>40.94</v>
-    <v>3.7643000000000003E-2</v>
-    <v>52.21</v>
-    <v>4.6296999999999998E-2</v>
+    <v>1.2679</v>
+    <v>16.329999999999998</v>
+    <v>1.4605999999999999E-2</v>
+    <v>0.77</v>
+    <v>6.7879999999999991E-4</v>
     <v>USD</v>
     <v>Fair Isaac Corporation is an applied analytics company. The Company operates through two segments: Scores and Software. The Scores segment includes its business-to-business (B2B) scoring solutions and services which give its clients access to predictive credit and other scores that can be integrated into their transaction streams and decision-making processes. This segment also includes its business-to-consumer (B2C) scoring solutions, including its myFICO.com subscription offerings. The Software segment includes pre-configured analytic and decision management solutions designed for a specific type of business need or process, such as account origination, customer management, customer engagement, fraud detection, financial crimes compliance and marketing as well as associated professional services. This segment also includes FICO Platform, a modular software offering designed to support advanced analytic and decision use cases, as well as stand-alone analytic and decisioning software.</v>
     <v>3455</v>
@@ -1961,25 +1965,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>5 West Mendenhall, Suites 105, BOZEMAN, MT, 59715 US</v>
-    <v>1130.47</v>
+    <v>1140.8499999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45262.036313066405</v>
+    <v>45269.035985068753</v>
     <v>0</v>
-    <v>1083.72</v>
-    <v>27869720000</v>
+    <v>1112.92</v>
+    <v>28034815328</v>
     <v>FAIR ISAAC CORPORATION</v>
     <v>FAIR ISAAC CORPORATION</v>
-    <v>1084.97</v>
-    <v>64.248500000000007</v>
-    <v>1087.5999999999999</v>
-    <v>1128.54</v>
-    <v>1179.92</v>
+    <v>1114.1199999999999</v>
+    <v>66.047899999999998</v>
+    <v>1118.06</v>
+    <v>1134.3900000000001</v>
+    <v>1135.1600000000001</v>
     <v>24713560</v>
     <v>FICO</v>
     <v>FAIR ISAAC CORPORATION (XNYS:FICO)</v>
-    <v>299849</v>
-    <v>187728</v>
+    <v>130079</v>
+    <v>183363</v>
     <v>1987</v>
   </rv>
   <rv s="2">
@@ -2144,9 +2148,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2592,7 +2596,7 @@
   <dimension ref="A1:S196"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="J202" sqref="J202"/>
     </sheetView>
   </sheetViews>
@@ -14093,7 +14097,7 @@
   <dimension ref="A1:S110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14148,7 +14152,7 @@
     <row r="3" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>27869720000</v>
+        <v>28034815328</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>204</v>
@@ -14168,15 +14172,15 @@
         <v>206</v>
       </c>
       <c r="G3" s="38">
-        <f>AVERAGE(Financials!M129:S129)</f>
-        <v>-2.1487754880384551E-2</v>
+        <f>AVERAGE(Financials!J129:O129)</f>
+        <v>-3.1382811440451575E-2</v>
       </c>
       <c r="H3" s="37" t="s">
         <v>207</v>
       </c>
       <c r="I3" s="101">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>19400242212.24453</v>
+        <v>19264369138.025433</v>
       </c>
       <c r="J3" s="39" t="s">
         <v>208</v>
@@ -14221,21 +14225,21 @@
       </c>
       <c r="G4" s="45">
         <f>A5*(1+(5*G3))</f>
-        <v>22058365.402491618</v>
+        <v>20835655.03248857</v>
       </c>
       <c r="H4" s="44" t="s">
         <v>214</v>
       </c>
       <c r="I4" s="102">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>16075757971.716721</v>
+        <v>15956610925.267414</v>
       </c>
       <c r="J4" s="44" t="s">
         <v>215</v>
       </c>
       <c r="K4" s="103" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>3.7643000000000003E-2</v>
+        <v>1.4605999999999999E-2</v>
       </c>
       <c r="L4" s="46" t="s">
         <v>216</v>
@@ -14280,14 +14284,14 @@
       </c>
       <c r="I5" s="102">
         <f>I4+G5-G6</f>
-        <v>14284500971.716721</v>
+        <v>14165353925.267414</v>
       </c>
       <c r="J5" s="44" t="s">
         <v>222</v>
       </c>
       <c r="K5" s="108" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>1128.54</v>
+        <v>1134.3900000000001</v>
       </c>
       <c r="L5" s="48" t="s">
         <v>223</v>
@@ -14307,7 +14311,7 @@
     <row r="6" spans="1:19" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="51">
         <f>O20/F10</f>
-        <v>16.55954842543078</v>
+        <v>16.657644282828283</v>
       </c>
       <c r="B6" s="43" t="s">
         <v>225</v>
@@ -14335,14 +14339,14 @@
       </c>
       <c r="I6" s="103">
         <f>N25</f>
-        <v>9.3684709470224448E-2</v>
+        <v>9.4169147998198047E-2</v>
       </c>
       <c r="J6" s="44" t="s">
         <v>228</v>
       </c>
       <c r="K6" s="106">
         <f>I5/G4</f>
-        <v>647.57749321276572</v>
+        <v>679.86122361786545</v>
       </c>
       <c r="L6" s="52" t="s">
         <v>229</v>
@@ -14362,14 +14366,14 @@
     <row r="7" spans="1:19" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="53">
         <f>O20/F12</f>
-        <v>47.722123287671231</v>
+        <v>48.004820767123284</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>231</v>
       </c>
       <c r="C7" s="99">
         <f>F15/A3</f>
-        <v>2.5619202489296628E-2</v>
+        <v>2.5468332558869638E-2</v>
       </c>
       <c r="D7" s="54" t="s">
         <v>232</v>
@@ -14396,7 +14400,7 @@
       </c>
       <c r="K7" s="107">
         <f>K6/K5-1</f>
-        <v>-0.4261811781480801</v>
+        <v>-0.40068122637023829</v>
       </c>
       <c r="L7" s="58" t="s">
         <v>235</v>
@@ -14723,7 +14727,7 @@
       </c>
       <c r="O14" s="77">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="41"/>
       <c r="Q14" s="41"/>
@@ -14875,7 +14879,7 @@
       </c>
       <c r="O17" s="87">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>9.762570000000001E-2</v>
+        <v>9.8120700000000005E-2</v>
       </c>
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
@@ -14958,7 +14962,7 @@
       </c>
       <c r="O20" s="93">
         <f>A3</f>
-        <v>27869720000</v>
+        <v>28034815328</v>
       </c>
       <c r="P20" s="41"/>
       <c r="Q20" s="41"/>
@@ -14988,7 +14992,7 @@
       </c>
       <c r="O21" s="93">
         <f>O19+O20</f>
-        <v>29823999000</v>
+        <v>29989094328</v>
       </c>
       <c r="P21" s="41"/>
       <c r="Q21" s="41"/>
@@ -15016,7 +15020,7 @@
       </c>
       <c r="O22" s="95">
         <f>(O19/O21)</f>
-        <v>6.5527060941760362E-2</v>
+        <v>6.5166322751379083E-2</v>
       </c>
       <c r="P22" s="41"/>
       <c r="Q22" s="41"/>
@@ -15041,7 +15045,7 @@
       </c>
       <c r="O23" s="96">
         <f>O20/O21</f>
-        <v>0.93447293905823969</v>
+        <v>0.93483367724862088</v>
       </c>
       <c r="P23" s="41"/>
       <c r="Q23" s="41"/>
@@ -15085,7 +15089,7 @@
       <c r="M25" s="60"/>
       <c r="N25" s="114">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>9.3684709470224448E-2</v>
+        <v>9.4169147998198047E-2</v>
       </c>
       <c r="O25" s="115"/>
       <c r="P25" s="41"/>
